--- a/masterlist.xlsx
+++ b/masterlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="171">
   <si>
     <t xml:space="preserve">Klasse</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
+    <t xml:space="preserve">Notizen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ausgruendung</t>
   </si>
   <si>
@@ -196,6 +199,9 @@
     <t xml:space="preserve">Patent</t>
   </si>
   <si>
+    <t xml:space="preserve">nicht relevant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Person</t>
   </si>
   <si>
@@ -422,6 +428,9 @@
   </si>
   <si>
     <t xml:space="preserve">hatAnmelder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezieht sich nur auf Patente</t>
   </si>
   <si>
     <t xml:space="preserve">hatArt</t>
@@ -647,18 +656,18 @@
   </sheetPr>
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,7 +686,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -688,10 +699,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>0</v>
@@ -700,15 +711,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>0</v>
@@ -717,32 +728,32 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>0</v>
@@ -751,15 +762,15 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>0</v>
@@ -768,15 +779,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>0</v>
@@ -785,16 +796,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>0</v>
       </c>
@@ -802,15 +813,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>0</v>
@@ -819,15 +830,15 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>0</v>
@@ -836,15 +847,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>0</v>
@@ -853,15 +864,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>0</v>
@@ -870,15 +881,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>0</v>
@@ -887,15 +898,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>0</v>
@@ -904,15 +915,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>0</v>
@@ -921,15 +932,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>0</v>
@@ -938,15 +949,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>0</v>
@@ -955,15 +966,15 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>0</v>
@@ -972,16 +983,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C19" s="0" t="s">
         <v>0</v>
       </c>
@@ -989,15 +1000,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>0</v>
@@ -1006,15 +1017,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>0</v>
@@ -1023,15 +1034,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>0</v>
@@ -1040,15 +1051,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>0</v>
@@ -1057,15 +1068,15 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>0</v>
@@ -1074,15 +1085,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>0</v>
@@ -1091,15 +1102,15 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>0</v>
@@ -1108,16 +1119,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="C27" s="0" t="s">
         <v>0</v>
       </c>
@@ -1125,15 +1136,15 @@
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>0</v>
@@ -1142,15 +1153,15 @@
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>0</v>
@@ -1159,15 +1170,15 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>0</v>
@@ -1176,16 +1187,16 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="C31" s="0" t="s">
         <v>0</v>
       </c>
@@ -1193,15 +1204,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>0</v>
@@ -1210,15 +1221,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>0</v>
@@ -1227,15 +1238,15 @@
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>0</v>
@@ -1244,15 +1255,15 @@
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>0</v>
@@ -1261,15 +1272,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>0</v>
@@ -1278,15 +1289,15 @@
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>0</v>
@@ -1295,16 +1306,16 @@
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="C38" s="0" t="s">
         <v>0</v>
       </c>
@@ -1312,15 +1323,15 @@
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>0</v>
@@ -1329,15 +1340,15 @@
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>0</v>
@@ -1346,15 +1357,15 @@
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>0</v>
@@ -1363,16 +1374,16 @@
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="C42" s="0" t="s">
         <v>0</v>
       </c>
@@ -1380,15 +1391,15 @@
         <v>1</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>0</v>
@@ -1397,15 +1408,15 @@
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>0</v>
@@ -1414,15 +1425,15 @@
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>0</v>
@@ -1431,16 +1442,16 @@
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="C46" s="0" t="s">
         <v>0</v>
       </c>
@@ -1448,15 +1459,15 @@
         <v>1</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>0</v>
@@ -1465,15 +1476,15 @@
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>0</v>
@@ -1482,15 +1493,15 @@
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>0</v>
@@ -1499,15 +1510,15 @@
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>0</v>
@@ -1516,15 +1527,15 @@
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>0</v>
@@ -1533,15 +1544,18 @@
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>0</v>
@@ -1550,15 +1564,15 @@
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>0</v>
@@ -1567,15 +1581,15 @@
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>0</v>
@@ -1584,15 +1598,15 @@
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>0</v>
@@ -1601,16 +1615,16 @@
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="C56" s="0" t="s">
         <v>0</v>
       </c>
@@ -1618,15 +1632,15 @@
         <v>1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>0</v>
@@ -1635,15 +1649,15 @@
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>0</v>
@@ -1652,16 +1666,16 @@
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="C59" s="0" t="s">
         <v>0</v>
       </c>
@@ -1669,15 +1683,15 @@
         <v>1</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>0</v>
@@ -1686,15 +1700,15 @@
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>0</v>
@@ -1703,15 +1717,15 @@
         <v>1</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>0</v>
@@ -1720,15 +1734,15 @@
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>0</v>
@@ -1737,15 +1751,15 @@
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>0</v>
@@ -1754,16 +1768,16 @@
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="C65" s="0" t="s">
         <v>0</v>
       </c>
@@ -1771,15 +1785,15 @@
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>0</v>
@@ -1788,16 +1802,16 @@
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="C67" s="0" t="s">
         <v>0</v>
       </c>
@@ -1805,15 +1819,15 @@
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>0</v>
@@ -1822,15 +1836,15 @@
         <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>0</v>
@@ -1839,15 +1853,15 @@
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>0</v>
@@ -1856,15 +1870,15 @@
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>0</v>
@@ -1873,15 +1887,15 @@
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>0</v>
@@ -1890,15 +1904,15 @@
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>0</v>
@@ -1907,16 +1921,16 @@
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="C74" s="0" t="s">
         <v>0</v>
       </c>
@@ -1924,15 +1938,15 @@
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>0</v>
@@ -1941,15 +1955,15 @@
         <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>0</v>
@@ -1958,15 +1972,15 @@
         <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>0</v>
@@ -1975,15 +1989,15 @@
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>0</v>
@@ -1992,15 +2006,15 @@
         <v>1</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>0</v>
@@ -2009,16 +2023,16 @@
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="C80" s="0" t="s">
         <v>0</v>
       </c>
@@ -2026,15 +2040,15 @@
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>0</v>
@@ -2043,16 +2057,16 @@
         <v>1</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="C82" s="0" t="s">
         <v>0</v>
       </c>
@@ -2060,15 +2074,15 @@
         <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>0</v>
@@ -2077,15 +2091,15 @@
         <v>1</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>0</v>
@@ -2094,15 +2108,15 @@
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>0</v>
@@ -2111,15 +2125,15 @@
         <v>1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>0</v>
@@ -2128,16 +2142,16 @@
         <v>1</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="C87" s="0" t="s">
         <v>0</v>
       </c>
@@ -2145,15 +2159,15 @@
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>0</v>
@@ -2162,15 +2176,15 @@
         <v>1</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>0</v>
@@ -2179,15 +2193,15 @@
         <v>1</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>0</v>
@@ -2196,15 +2210,15 @@
         <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>0</v>
@@ -2213,15 +2227,15 @@
         <v>1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>0</v>
@@ -2230,15 +2244,15 @@
         <v>1</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>0</v>
@@ -2247,15 +2261,15 @@
         <v>1</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>0</v>
@@ -2264,15 +2278,15 @@
         <v>1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>0</v>
@@ -2281,15 +2295,15 @@
         <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>0</v>
@@ -2298,16 +2312,16 @@
         <v>1</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="C97" s="0" t="s">
         <v>0</v>
       </c>
@@ -2315,15 +2329,15 @@
         <v>1</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>0</v>
@@ -2332,15 +2346,15 @@
         <v>1</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>0</v>
@@ -2349,15 +2363,15 @@
         <v>1</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>0</v>
@@ -2366,15 +2380,15 @@
         <v>1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>0</v>
@@ -2383,16 +2397,16 @@
         <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="C102" s="0" t="s">
         <v>0</v>
       </c>
@@ -2400,15 +2414,15 @@
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>0</v>
@@ -2417,15 +2431,15 @@
         <v>1</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>0</v>
@@ -2434,16 +2448,16 @@
         <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="C105" s="0" t="s">
         <v>0</v>
       </c>
@@ -2451,15 +2465,15 @@
         <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>0</v>
@@ -2468,15 +2482,15 @@
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>0</v>
@@ -2485,15 +2499,15 @@
         <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>0</v>
@@ -2502,16 +2516,16 @@
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="C109" s="0" t="s">
         <v>0</v>
       </c>
@@ -2519,15 +2533,15 @@
         <v>1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>0</v>
@@ -2536,15 +2550,15 @@
         <v>1</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>0</v>
@@ -2553,15 +2567,15 @@
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>0</v>
@@ -2570,15 +2584,15 @@
         <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>0</v>
@@ -2587,15 +2601,15 @@
         <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>0</v>
@@ -2604,15 +2618,15 @@
         <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>0</v>
@@ -2621,15 +2635,15 @@
         <v>1</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>0</v>
@@ -2638,15 +2652,15 @@
         <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>0</v>
@@ -2655,16 +2669,16 @@
         <v>1</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="C118" s="0" t="s">
         <v>0</v>
       </c>
@@ -2672,15 +2686,15 @@
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>0</v>
@@ -2689,15 +2703,15 @@
         <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>0</v>
@@ -2706,15 +2720,15 @@
         <v>1</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>0</v>
@@ -2723,15 +2737,15 @@
         <v>1</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>0</v>
@@ -2740,16 +2754,16 @@
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="C123" s="0" t="s">
         <v>0</v>
       </c>
@@ -2757,15 +2771,15 @@
         <v>1</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>0</v>
@@ -2774,619 +2788,622 @@
         <v>1</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/masterlist.xlsx
+++ b/masterlist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="236">
   <si>
     <t xml:space="preserve">Klasse</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
     <t xml:space="preserve">Version</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">KDF</t>
+  </si>
+  <si>
     <t xml:space="preserve">live</t>
   </si>
   <si>
@@ -421,10 +427,16 @@
     <t xml:space="preserve">UserAccess</t>
   </si>
   <si>
+    <t xml:space="preserve">Leitthema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKON</t>
+  </si>
+  <si>
     <t xml:space="preserve">hasIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Property</t>
+    <t xml:space="preserve">Object Property</t>
   </si>
   <si>
     <t xml:space="preserve">hatAnmelder</t>
@@ -533,6 +545,189 @@
   </si>
   <si>
     <t xml:space="preserve">hatZugangsart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatProjektleiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatAntragsteller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatLeitthema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abschlusszeitpunkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altersgruppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AltersgruppeBeiAbschluss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnzahlGenutzteStunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnzahlNutzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnzahlNutzungszugriffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeschreibungDerForschungsinfrastruktur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besoldung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeteiligteInstitutionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bewilligungssumme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tippfehler in KDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BezeichnungDerForschungsinfrastruktur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BezeichnungDerProfessur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DatumDerPrioritaetsbegruendendenErstanmeldung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drittmitteleinnahmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drittmittelertraege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foerderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoerderkennzeichenDrittmittelprojekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoerderkennzeichenPublikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschlecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatPromotionsberechtigungAus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdentifierName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konferenzname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kooperationspartner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordinationsrolle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KoordinatorEinrichtung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaenderDerBeteiligtenInstitutionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameAusgruendung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameDerOrganisationseinheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameDerQuelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameDerWeiterenEinrichtung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeerReviewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektbeginn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ressource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schoepfername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seitenbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprachcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staatsangehoerigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartDerPromotionNachAnnahmeAmFachbereichAnDerFakultaet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartDerPromotionNachBetreuungsvereinbarungArbeitsvertrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TitelPatent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TitelProjekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TitelPromotionsprogramm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TitelPublikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verlagsort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veroeffentlichungsjahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veroeffentlichungsnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VertragslaufzeitInMonaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zugriffsrechte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akronym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KurztitelProjekt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RedaktionellerTitel</t>
   </si>
 </sst>
 </file>
@@ -654,10 +849,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:N220"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -665,9 +860,9 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.280612244898"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,2726 +884,4409 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
+      <c r="D7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
+      <c r="D11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
+      <c r="D13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
+      <c r="D16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
+      <c r="D19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="C20" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
+      <c r="D25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="C28" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
+      <c r="D28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>8</v>
+      <c r="D30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>8</v>
+      <c r="D31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="C32" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>8</v>
+      <c r="D34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>8</v>
+      <c r="D36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>8</v>
+      <c r="D37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
+      <c r="D38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="C39" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>8</v>
+      <c r="D39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>8</v>
+      <c r="D40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="C43" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="C47" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
+      <c r="D49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>8</v>
+      <c r="D50" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>59</v>
+      <c r="D51" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>8</v>
+      <c r="D53" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>8</v>
+      <c r="D54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>8</v>
+      <c r="D55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="C56" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
+      <c r="D56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="C59" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>8</v>
+      <c r="D61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>8</v>
+      <c r="D63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>8</v>
+      <c r="D64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="C65" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>8</v>
+      <c r="D65" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="C67" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>8</v>
+      <c r="D67" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>8</v>
+      <c r="D68" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>8</v>
+      <c r="D69" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>8</v>
+      <c r="D70" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>8</v>
+      <c r="D71" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>8</v>
+      <c r="D73" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>80</v>
-      </c>
       <c r="C74" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>8</v>
+      <c r="D74" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>8</v>
+      <c r="D75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>8</v>
+      <c r="D77" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>8</v>
+      <c r="D78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>8</v>
+      <c r="D79" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="C80" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>8</v>
+      <c r="D80" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D81" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="C82" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>8</v>
+      <c r="D82" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>8</v>
+      <c r="D84" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>8</v>
+      <c r="D85" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>8</v>
+      <c r="D86" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="C87" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>8</v>
+      <c r="D87" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>8</v>
+      <c r="D88" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>8</v>
+      <c r="D90" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D92" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>8</v>
+      <c r="D92" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>8</v>
+      <c r="D93" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D94" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D95" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>8</v>
+      <c r="D95" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>8</v>
+      <c r="D96" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="C97" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>8</v>
+      <c r="D97" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>8</v>
+      <c r="D98" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>8</v>
+      <c r="D99" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="C102" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>8</v>
+      <c r="D103" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D104" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>8</v>
+      <c r="D104" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="C105" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>8</v>
+      <c r="D105" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>8</v>
+      <c r="D106" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D107" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>8</v>
+      <c r="D107" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>8</v>
+      <c r="D108" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="C109" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D109" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>8</v>
+      <c r="D109" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>8</v>
+      <c r="D110" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D111" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>8</v>
+      <c r="D111" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D112" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>8</v>
+      <c r="D112" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>8</v>
+      <c r="D113" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>8</v>
+      <c r="D114" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D115" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>8</v>
+      <c r="D115" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>8</v>
+      <c r="D116" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D117" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>8</v>
+      <c r="D117" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="C118" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D118" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>8</v>
+      <c r="D118" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D119" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>8</v>
+      <c r="D119" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>8</v>
+      <c r="D120" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>8</v>
+      <c r="D121" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D122" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>8</v>
+      <c r="D122" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="C123" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D123" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>8</v>
+      <c r="D123" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D124" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>8</v>
+      <c r="D124" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D125" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D127" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D128" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>8</v>
+      <c r="D128" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D129" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D130" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D131" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D132" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D133" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D134" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D135" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D137" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D139" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D140" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D141" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D142" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D143" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D144" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D145" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D146" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D147" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D148" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D149" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D150" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D152" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D153" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D154" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D155" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D156" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D157" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D158" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D159" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D160" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>8</v>
+        <v>138</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E160" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F220" type="list">
       <formula1>"gewünscht,deprecated,live,inactive"</formula1>
       <formula2>0</formula2>
     </dataValidation>
